--- a/data/feed_back.xlsx
+++ b/data/feed_back.xlsx
@@ -511,22 +511,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sdfgsdfgsdfgsdfgsdfgsdfgsdfg</t>
+          <t>.,m.m.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sdfgsdfgsdfgsdfgsdfg</t>
+          <t>,.,m.m.m</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sdfgsdfgsdfgsdfg</t>
+          <t>.mm.m,</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>asdfasdfasdfasdfasdfasdf</t>
+          <t>m;lm;lm</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>gsdfgsdfgsdfgsdfgsdfg</t>
+          <t>;,m.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>sdfgsdfgsdfgsdfgsdfgsdfg</t>
+          <t>,m.,m.,m.,m.,.m...m</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/feed_back.xlsx
+++ b/data/feed_back.xlsx
@@ -1,37 +1,347 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitos_metla/Antistresss_bot/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D94929C-C7C6-1A4F-A422-58F2C39BF5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Что изменилось вследствие прохождения программы?</t>
+  </si>
+  <si>
+    <t>Что изменилось в твоем поведении?</t>
+  </si>
+  <si>
+    <t>Что изменилось в твоем самоощущении, в том числе в стрессовых ситуациях и после них?</t>
+  </si>
+  <si>
+    <t>Какие инструменты, с которыми мы тебя познакомили, ты будешь использовать?</t>
+  </si>
+  <si>
+    <t>Как ты оцениваешь свой прогресс в совладании со стрессом по шкале от 1 до 7, где 7 — максимальное значение?</t>
+  </si>
+  <si>
+    <t>Любая обратная связь от тебя</t>
+  </si>
+  <si>
+    <t>Как ты думаешь, с чем связана такая динамика?</t>
+  </si>
+  <si>
+    <t>Ух ты! Как тебе результаты?</t>
+  </si>
+  <si>
+    <t>Что ты замечал за этот месяц?</t>
+  </si>
+  <si>
+    <t>Что изменилось в твоем поведении?.1</t>
+  </si>
+  <si>
+    <t>Что изменилось в твоем самоощущении, в том числе в стрессовых ситуациях и после них?.1</t>
+  </si>
+  <si>
+    <t>Какие инструменты, с которыми мы тебя познакомили, ты использовал?</t>
+  </si>
+  <si>
+    <t>Любая обратная связь от тебя.1</t>
+  </si>
+  <si>
+    <t>Овлчдчдчдч</t>
+  </si>
+  <si>
+    <t>Тчочлчдчдч</t>
+  </si>
+  <si>
+    <t>Тсосчлчлчд</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>Ослчлчдчдч</t>
+  </si>
+  <si>
+    <t>Хуй знает</t>
+  </si>
+  <si>
+    <t>😍</t>
+  </si>
+  <si>
+    <t>dsfgsdfgdsfgsdfg</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>sdfgsdfgsdfgsdfgsd</t>
+  </si>
+  <si>
+    <t>Я поняла, что у меня не очень комфортное рабочее место</t>
+  </si>
+  <si>
+    <t>Ничего</t>
+  </si>
+  <si>
+    <t>Представлять самое худшее, чтобы лучше понимать, что именно меня тревожит больше всего</t>
+  </si>
+  <si>
+    <t>Долго и много букв</t>
+  </si>
+  <si>
+    <t>Я узнала много техник и способов совладания со стрессом, которые постараюсь применять дальше. Спасибо!</t>
+  </si>
+  <si>
+    <t>Стала отслеживать неприятное состояние и менять поведение, чтобы его исправить</t>
+  </si>
+  <si>
+    <t>В стрессовых ситуациях теперь знаю, что нужно делать. А это в свою очередь улучшает и состояние после стресса</t>
+  </si>
+  <si>
+    <t>Все хороши, в зависимости от ситуации)</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Замечательная программа!</t>
+  </si>
+  <si>
+    <t>С ситуативными стрессорами</t>
+  </si>
+  <si>
+    <t>я думаю, что я получил инструменты для того, чтобы уметь замечать стресс и снижать его интенсивность самостоятельно</t>
+  </si>
+  <si>
+    <t>коренных изменений не заметил, но в стрессовые моменты начал менее резко реагировать на ситуацию, более сдержанным стал</t>
+  </si>
+  <si>
+    <t>появляется уверенность что я могу решить большинство стрессовых ситуаций</t>
+  </si>
+  <si>
+    <t>техники заземления (дыхание, рассматривание окружающей среды), техники рефлексии (анализ ситуаций по мыслям, эмоциям и проч)</t>
+  </si>
+  <si>
+    <t>в целом интересная программа, но я бы сделал меньше текста, больше визуала, так как видна попытка выстроить микрообучение, но читать сообщения, находясь на работе, не очень удобно. А так в целом очень здорово, автор молодец!</t>
+  </si>
+  <si>
+    <t>были периоды в рабочей деятельнсти, когда слишком много работал и, заполняя опросник ночью, естественно уставший, давал заниженный результат, поскольку был не на пике бодрости и энергичности, также ближе к концу программы сильно заболел, что также сказалось на восприятии своего состояния</t>
+  </si>
+  <si>
+    <t>р</t>
+  </si>
+  <si>
+    <t>н</t>
+  </si>
+  <si>
+    <t>о</t>
+  </si>
+  <si>
+    <t>понимаю, как справляться со стрессом</t>
+  </si>
+  <si>
+    <t>применяю техники</t>
+  </si>
+  <si>
+    <t>появилась уверенность</t>
+  </si>
+  <si>
+    <t>дышать, напрягаться</t>
+  </si>
+  <si>
+    <t>Спасибо за курс!)</t>
+  </si>
+  <si>
+    <t>прохожу опросник утром</t>
+  </si>
+  <si>
+    <t>Я узнала больше о стрессе</t>
+  </si>
+  <si>
+    <t>Стараюсь отслеживать причину стресса, больше уделяю внимание своему самочувствию</t>
+  </si>
+  <si>
+    <t>Нет изменений</t>
+  </si>
+  <si>
+    <t>Я буду следить за эмоциями, которые возникают во время стрессовых ситуаций, и буду стараться давать им выход 
+Также попробую снизить уровень стресса, устранив некоторые стресс факторы</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Спасибо</t>
+  </si>
+  <si>
+    <t>Я дала себе отдохнуть от рабочих и учебных задач</t>
+  </si>
+  <si>
+    <t>Я стала лучше замечать стресс, узнала про все уровни стресса</t>
+  </si>
+  <si>
+    <t>Пока что ничего</t>
+  </si>
+  <si>
+    <t>Ну я понимаю что это ок испытывать стресс и это помогает мне собраться и всё пройдёт и будет круто</t>
+  </si>
+  <si>
+    <t>Мне понрав методы из уровня рефлексии. Там где надо было представить самый худший вариант или как я буду думать об этом через год. Помогает вернуться в реальность и понять что жизнь продолжается</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Оч прикольный формат, но тк я с психфака, по сути так или иначе все это знаю, мне кажется у менее посвященных людей был бы больше эффект! Надеюсь они тоже присутствуют в выборке. 
+А так желаю удачи, ты супер, это просто легенда и заслуживает сразу 5 на защите</t>
+  </si>
+  <si>
+    <t>Госы приближаются стресс растет, я ещё и заболела, поэтому улучшения минимальны</t>
+  </si>
+  <si>
+    <t>Я научилась гораздо лучше контролировать стресс, убирать его когда надо. Научилась ловить источники стресса и понимать, как с ними работать</t>
+  </si>
+  <si>
+    <t>Я стала спокойнее относиться к работе и учебе, меньше устаю</t>
+  </si>
+  <si>
+    <t>Научилась гораздо быстрее пресекать сильный стресс</t>
+  </si>
+  <si>
+    <t>Дыхание, абстрагирование</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Очень классный бот! Узнала много нового как для общего развития, так и для себя персонально. Теперь лучше умею работать со стрессовыми состояниями.</t>
+  </si>
+  <si>
+    <t>С тем, что сегодня у меня нет срочных дел по работе/учебе и сегодня я выспалась :)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Я заболела</t>
+  </si>
+  <si>
+    <t>Узнала новые методы борьбы со стрессом 
+Озвучила для себя некоторые причины стресса, о которых я не задумывалась ранее или не обращала на них внимание ранее</t>
+  </si>
+  <si>
+    <t>Стараюсь избегать стрессоров</t>
+  </si>
+  <si>
+    <t>Не замечаю особых изменений</t>
+  </si>
+  <si>
+    <t>Постараюсь практиковать новые для себя способы, о которых не знала ранее</t>
+  </si>
+  <si>
+    <t>Прекрасный проект, очень грамотно все оформлено, интересный подход и формат 
+Хотелось бы знать про уровень субъективного комфорта, какое-то пояснение и что с этим делать, на что обратить внимание</t>
+  </si>
+  <si>
+    <t>Со слишком большой загруженностью и отсутствием времени на качественный отдых</t>
+  </si>
+  <si>
+    <t>я поняла как совладать со стрессом</t>
+  </si>
+  <si>
+    <t>Я стала справляться со стрессом иначе чем раньше</t>
+  </si>
+  <si>
+    <t>стала выносливее и сильнее</t>
+  </si>
+  <si>
+    <t>очень многие</t>
+  </si>
+  <si>
+    <t>Спасибо большое за этот полезный и информативный курс</t>
+  </si>
+  <si>
+    <t>с отношениямм</t>
+  </si>
+  <si>
+    <t>Я стала спокойнее и уравновешеннее, в конце случился сильный стресс связанный с колебанием в выборе узкого профиля учебы, но я относительно легко его перенесла (спасибо от души за практики ❤️) 
+Стресс не выбивает меня из колеи теперь, не то что раньше) раньше я могла выпасть на сутки не в состоянии что либо делать и чувствовала себя выжатым лимоном, а теперь 15 минут с выплеском эмоций в спорт (в моменте была возможность) и я опять в строю или беспомощность, но вдох-выдох и я продолжаю работать практически как ничего и не произошло
+Тяжелый период впереди, сразу после майских и можно сказать, что я к нему готова благодаря этой программе</t>
+  </si>
+  <si>
+    <t>Я меньше дергаюсь в активное действие, раньше про меня говорили что я похожа на электровеник😅, когда стресс нагнетался
+А сейчас я работаю и учусь размеренно, кстати улучшился сон! это очень приятный бонус)</t>
+  </si>
+  <si>
+    <t>Я не чувствую себя как лимон)</t>
+  </si>
+  <si>
+    <t>Переоценка ситуации, напряжение-разрядка, дыхание</t>
+  </si>
+  <si>
+    <t>Спасибо за возможность улучшить свою жизнь 🤗
+Буду рада поучаствовать в других ваших проектах)</t>
+  </si>
+  <si>
+    <t>Начало дня и понимание сто мало что меня может выбить из размеренной жизни</t>
+  </si>
+  <si>
+    <t>В целом, было интересно порефлексировать и поразмышлять о своем состоянии, а стрессовых факторах. Узнала новую информацию и какие-то упражнения, к которым можно возвращаться после окончания программы, делать их, что-то переоценивать и переосмыслять</t>
+  </si>
+  <si>
+    <t>Стала больше обращаться к себе, отслеживать какие-то свои состояния, не строить грандиозных планов, а устраивать мб какой-то отдых, перерывы, когда плохо себя чувствую</t>
+  </si>
+  <si>
+    <t>Сильных изменений, конечно, не произошло, но во время стрессовых ситуаций, наверное, все осталось также, но после них стала больше как-то пытаться в конструктивный лад все перевести</t>
+  </si>
+  <si>
+    <t>Дыхательные упражнения, переоценку ситуации (в плане что я буду вспоминать через 10 лет об этом), какие-то положительные стороны найти ситуации</t>
+  </si>
+  <si>
+    <t>Интересная программа, особенно для тех, кто не был никак знаком с этой темой, очень важно, конечно, чтобы человек сам старался и был замотивирован, тогда скорее всего можно наблюдать какой-то прогресс. Для меня стало ценным в данный довольно стрессовый и тяжелый период иметь такое место для рефлексии, изучения чего-то нового, что может быть полезным для меня сейчас и в будущем</t>
+  </si>
+  <si>
+    <t>В целом, в данный период мне сложно чувствовать себя по-другому, так как последний месяц вуза, надо дописать диплом и готовиться к госам</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +356,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,159 +680,671 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Что изменилось вследствие прохождения программы?</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Что изменилось в твоем поведении?</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Что изменилось в твоем самоощущении, в том числе в стрессовых ситуациях и после них?</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Какие инструменты, с которыми мы тебя познакомили, ты будешь использовать?</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Как ты оцениваешь свой прогресс в совладании со стрессом по шкале от 1 до 7, где 7 — максимальное значение?</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Любая обратная связь от тебя</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Как ты думаешь, с чем связана такая динамика?</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Ух ты! Как тебе результаты?</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Что ты замечал за этот месяц?</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Что изменилось в твоем поведении?.1</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Что изменилось в твоем самоощущении, в том числе в стрессовых ситуациях и после них?.1</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Какие инструменты, с которыми мы тебя познакомили, ты использовал?</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Любая обратная связь от тебя.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>774127719</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>.,m.m.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>,.,m.m.m</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>.mm.m,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>m;lm;lm</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>;,m.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>,m.,m.,m.,m.,.m...m</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>😍</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>dsfgsdfgdsfgsdfg</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>sdfgsdfgsdfgsdfgsd</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>224473558</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>450524604</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>278434465</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>965046780</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>327254001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>810187399</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>335590148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>947998130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>806464370</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>5535592450</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>836861573</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>942810856</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>448392696</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/feed_back.xlsx
+++ b/data/feed_back.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitos_metla/Antistresss_bot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D94929C-C7C6-1A4F-A422-58F2C39BF5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D182A4-1CA6-334C-9480-3BAEBD2AFBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -67,7 +67,10 @@
     <t>Овлчдчдчдч</t>
   </si>
   <si>
-    <t>Тчочлчдчдч</t>
+    <t>Лвлададпдпщзп</t>
+  </si>
+  <si>
+    <t>Очлчдчдчдчдчда</t>
   </si>
   <si>
     <t>Тсосчлчлчд</t>
@@ -76,7 +79,7 @@
     <t>7.0</t>
   </si>
   <si>
-    <t>Ослчлчдчдч</t>
+    <t>Лалалпджпжп за</t>
   </si>
   <si>
     <t>Хуй знает</t>
@@ -85,13 +88,13 @@
     <t>😍</t>
   </si>
   <si>
-    <t>dsfgsdfgdsfgsdfg</t>
+    <t>Jdjjdjfkfifi</t>
   </si>
   <si>
     <t>nan</t>
   </si>
   <si>
-    <t>sdfgsdfgsdfgsdfgsd</t>
+    <t>Сллсдсдчдчзв</t>
   </si>
   <si>
     <t>Я поняла, что у меня не очень комфортное рабочее место</t>
@@ -103,7 +106,16 @@
     <t>Представлять самое худшее, чтобы лучше понимать, что именно меня тревожит больше всего</t>
   </si>
   <si>
-    <t>Долго и много букв</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>🙂</t>
+  </si>
+  <si>
+    <t>Ничего, он пролетел быстро</t>
+  </si>
+  <si>
+    <t>Думать про самое страшное, что может произойти</t>
   </si>
   <si>
     <t>Я узнала много техник и способов совладания со стрессом, которые постараюсь применять дальше. Спасибо!</t>
@@ -235,9 +247,6 @@
   </si>
   <si>
     <t>С тем, что сегодня у меня нет срочных дел по работе/учебе и сегодня я выспалась :)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Я заболела</t>
@@ -742,37 +751,37 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -780,43 +789,43 @@
         <v>224473558</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -824,43 +833,43 @@
         <v>450524604</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -868,43 +877,43 @@
         <v>278434465</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -912,43 +921,43 @@
         <v>965046780</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -956,43 +965,43 @@
         <v>327254001</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1000,43 +1009,43 @@
         <v>810187399</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1044,43 +1053,43 @@
         <v>335590148</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1088,43 +1097,43 @@
         <v>947998130</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1132,43 +1141,43 @@
         <v>806464370</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1176,43 +1185,43 @@
         <v>5535592450</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1220,43 +1229,43 @@
         <v>836861573</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1264,43 +1273,43 @@
         <v>942810856</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1308,43 +1317,43 @@
         <v>448392696</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
